--- a/Data/WaterQuality/LabAnalyses_Lakes9-30-22.xlsx
+++ b/Data/WaterQuality/LabAnalyses_Lakes9-30-22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022 fire lakes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\immcc\Documents\SplashNBurn\Data\WaterQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410398A0-74DE-4D91-ABE8-28A964804FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab Analyses_ Lakes" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -324,19 +325,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,6 +433,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -467,6 +485,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -642,11 +677,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3458,7 @@
         <v>-99</v>
       </c>
       <c r="E68" s="5">
-        <v>208</v>
+        <v>20.9</v>
       </c>
       <c r="F68" s="5">
         <v>710</v>
